--- a/Files/MathQA Files/MTHQA_FINAL.xlsx
+++ b/Files/MathQA Files/MTHQA_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/MathQA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C3BDA3C0-D324-40E0-BA53-F0A368DEAF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9B6F81C-557B-4209-AD1D-BE28A2A52BD6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{C3BDA3C0-D324-40E0-BA53-F0A368DEAF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C3DA37-713E-493A-B44A-28711D0FB9B0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{A91FAE4D-7D73-4A62-B58A-7E8A4B44546A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A91FAE4D-7D73-4A62-B58A-7E8A4B44546A}"/>
   </bookViews>
   <sheets>
     <sheet name="MathQA_final" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5447" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="2178">
   <si>
     <t>Question</t>
   </si>
@@ -6579,6 +6579,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Number of Words</t>
   </si>
 </sst>
 </file>
@@ -6622,9 +6625,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6634,7 +6640,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -6678,10 +6687,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{8F1B5CA9-44F8-4F99-8E04-E6B8029EF5C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="12">
+  <queryTableRefresh nextId="14" unboundColumnsRight="1">
+    <queryTableFields count="13">
       <queryTableField id="1" name="Question" tableColumnId="1"/>
       <queryTableField id="2" name="A" tableColumnId="2"/>
       <queryTableField id="3" name="B" tableColumnId="3"/>
@@ -6694,33 +6707,31 @@
       <queryTableField id="10" name="GPT-4" tableColumnId="10"/>
       <queryTableField id="11" name="Eval GPT-3.5" tableColumnId="11"/>
       <queryTableField id="12" name="Eval GPT-4" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55448B06-3360-413C-8B8C-2213B6424ACD}" name="MathQA_final" displayName="MathQA_final" ref="A1:L541" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L541" xr:uid="{55448B06-3360-413C-8B8C-2213B6424ACD}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Physics"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{73DC26AB-E12B-4424-9BFB-466154E67DED}" uniqueName="1" name="Question" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D58A2974-EFA5-4F38-BAF6-41D969146890}" uniqueName="2" name="A" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{588EA169-8772-441D-84C1-25EDA21C020E}" uniqueName="3" name="B" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{436A5528-7CDB-4857-8CF1-2A7A0CFE7DC4}" uniqueName="4" name="C" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{10759779-7F25-4F14-8F0C-66BB810F92ED}" uniqueName="5" name="D" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A9E01089-1B16-43AE-943B-7E370F2B9DFC}" uniqueName="6" name="E" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{47505A38-E0A0-495E-B8F2-E759F6DBDEC1}" uniqueName="7" name="Correct Option" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8B25BDA3-7CDC-4054-9A11-454426540AA1}" uniqueName="8" name="Sub-Branch" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{CA1664BA-8FB8-490E-A319-7DFA929557B3}" uniqueName="9" name="GPT-3.5" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{BE143E46-8D71-48A5-BD88-C5D9B66E1C90}" uniqueName="10" name="GPT-4" queryTableFieldId="10" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55448B06-3360-413C-8B8C-2213B6424ACD}" name="MathQA_final" displayName="MathQA_final" ref="A1:M541" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M541" xr:uid="{55448B06-3360-413C-8B8C-2213B6424ACD}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{73DC26AB-E12B-4424-9BFB-466154E67DED}" uniqueName="1" name="Question" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D58A2974-EFA5-4F38-BAF6-41D969146890}" uniqueName="2" name="A" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{588EA169-8772-441D-84C1-25EDA21C020E}" uniqueName="3" name="B" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{436A5528-7CDB-4857-8CF1-2A7A0CFE7DC4}" uniqueName="4" name="C" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{10759779-7F25-4F14-8F0C-66BB810F92ED}" uniqueName="5" name="D" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A9E01089-1B16-43AE-943B-7E370F2B9DFC}" uniqueName="6" name="E" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{47505A38-E0A0-495E-B8F2-E759F6DBDEC1}" uniqueName="7" name="Correct Option" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8B25BDA3-7CDC-4054-9A11-454426540AA1}" uniqueName="8" name="Sub-Branch" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{CA1664BA-8FB8-490E-A319-7DFA929557B3}" uniqueName="9" name="GPT-3.5" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{BE143E46-8D71-48A5-BD88-C5D9B66E1C90}" uniqueName="10" name="GPT-4" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{9FD62B02-E89A-4D29-9FC3-9A90A9539753}" uniqueName="11" name="Eval GPT-3.5" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{C0D785D2-F659-4D9A-95F0-D8646A2E31CF}" uniqueName="12" name="Eval GPT-4" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{9A684756-93F9-40E9-BF17-CA66358F7EC2}" uniqueName="13" name="Number of Words" queryTableFieldId="13" dataDxfId="0">
+      <calculatedColumnFormula>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7043,10 +7054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A90158A-E111-4E74-B9E1-7C9CA4DEE311}">
-  <dimension ref="A1:L541"/>
+  <dimension ref="A1:M541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D525" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7063,9 +7074,10 @@
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7102,8 +7114,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -7140,8 +7155,12 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -7178,8 +7197,12 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -7216,8 +7239,12 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7254,8 +7281,12 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -7292,8 +7323,12 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -7330,8 +7365,12 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -7368,8 +7407,12 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -7406,8 +7449,12 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -7444,8 +7491,12 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M10">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -7482,8 +7533,12 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M11">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -7520,8 +7575,12 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M12">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -7558,8 +7617,12 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M13">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7596,8 +7659,12 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M14">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -7634,8 +7701,12 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -7672,8 +7743,12 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M16">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -7710,8 +7785,12 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M17">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -7748,8 +7827,12 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M18">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -7786,8 +7869,12 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M19">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -7824,8 +7911,12 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M20">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -7862,8 +7953,12 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M21">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -7900,8 +7995,12 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M22">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -7938,8 +8037,12 @@
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M23">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -7976,8 +8079,12 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M24">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -8014,8 +8121,12 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M25">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -8052,8 +8163,12 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M26">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -8090,8 +8205,12 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M27">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -8128,8 +8247,12 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M28">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -8166,8 +8289,12 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M29">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -8204,8 +8331,12 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M30">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -8242,8 +8373,12 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M31">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -8280,8 +8415,12 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M32">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -8318,8 +8457,12 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M33">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -8356,8 +8499,12 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M34">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -8394,8 +8541,12 @@
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M35">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -8432,8 +8583,12 @@
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M36">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -8470,8 +8625,12 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M37">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -8508,8 +8667,12 @@
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M38">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -8546,8 +8709,12 @@
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M39">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>224</v>
       </c>
@@ -8584,8 +8751,12 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M40">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -8622,8 +8793,12 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M41">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -8660,8 +8835,12 @@
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M42">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>238</v>
       </c>
@@ -8698,8 +8877,12 @@
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M43">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>241</v>
       </c>
@@ -8736,8 +8919,12 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M44">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>244</v>
       </c>
@@ -8774,8 +8961,12 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M45">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -8812,8 +9003,12 @@
       <c r="L46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M46">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -8850,8 +9045,12 @@
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M47">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -8888,8 +9087,12 @@
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M48">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -8926,8 +9129,12 @@
       <c r="L49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M49">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -8964,8 +9171,12 @@
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M50">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -9002,8 +9213,12 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M51">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>276</v>
       </c>
@@ -9040,8 +9255,12 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M52">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>282</v>
       </c>
@@ -9078,8 +9297,12 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M53">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>288</v>
       </c>
@@ -9116,8 +9339,12 @@
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M54">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>293</v>
       </c>
@@ -9154,8 +9381,12 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M55">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>299</v>
       </c>
@@ -9192,8 +9423,12 @@
       <c r="L56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M56">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>305</v>
       </c>
@@ -9230,8 +9465,12 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M57">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>310</v>
       </c>
@@ -9268,8 +9507,12 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M58">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>316</v>
       </c>
@@ -9306,8 +9549,12 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M59">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>321</v>
       </c>
@@ -9344,8 +9591,12 @@
       <c r="L60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M60">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>327</v>
       </c>
@@ -9382,8 +9633,12 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M61">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>333</v>
       </c>
@@ -9420,8 +9675,12 @@
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M62">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>339</v>
       </c>
@@ -9458,8 +9717,12 @@
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M63">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>345</v>
       </c>
@@ -9496,8 +9759,12 @@
       <c r="L64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M64">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>351</v>
       </c>
@@ -9534,8 +9801,12 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M65">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>354</v>
       </c>
@@ -9572,8 +9843,12 @@
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M66">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -9610,8 +9885,12 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M67">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>365</v>
       </c>
@@ -9648,8 +9927,12 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M68">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -9686,8 +9969,12 @@
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M69">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>374</v>
       </c>
@@ -9724,8 +10011,12 @@
       <c r="L70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M70">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>377</v>
       </c>
@@ -9762,8 +10053,12 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M71">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>382</v>
       </c>
@@ -9800,8 +10095,12 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M72">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>385</v>
       </c>
@@ -9838,8 +10137,12 @@
       <c r="L73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M73">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>391</v>
       </c>
@@ -9876,8 +10179,12 @@
       <c r="L74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M74">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>393</v>
       </c>
@@ -9914,8 +10221,12 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M75">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>398</v>
       </c>
@@ -9952,8 +10263,12 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M76">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>400</v>
       </c>
@@ -9990,8 +10305,12 @@
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M77">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>402</v>
       </c>
@@ -10028,8 +10347,12 @@
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M78">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>405</v>
       </c>
@@ -10066,8 +10389,12 @@
       <c r="L79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M79">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>408</v>
       </c>
@@ -10104,8 +10431,12 @@
       <c r="L80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M80">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>414</v>
       </c>
@@ -10142,8 +10473,12 @@
       <c r="L81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M81">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>415</v>
       </c>
@@ -10180,8 +10515,12 @@
       <c r="L82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M82">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>420</v>
       </c>
@@ -10218,8 +10557,12 @@
       <c r="L83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M83">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>426</v>
       </c>
@@ -10256,8 +10599,12 @@
       <c r="L84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M84">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>429</v>
       </c>
@@ -10294,8 +10641,12 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M85">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>435</v>
       </c>
@@ -10332,8 +10683,12 @@
       <c r="L86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M86">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>440</v>
       </c>
@@ -10370,8 +10725,12 @@
       <c r="L87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M87">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>444</v>
       </c>
@@ -10408,8 +10767,12 @@
       <c r="L88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M88">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>450</v>
       </c>
@@ -10446,8 +10809,12 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M89">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>456</v>
       </c>
@@ -10484,8 +10851,12 @@
       <c r="L90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M90">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>461</v>
       </c>
@@ -10522,8 +10893,12 @@
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M91">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>466</v>
       </c>
@@ -10560,8 +10935,12 @@
       <c r="L92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M92">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>468</v>
       </c>
@@ -10598,8 +10977,12 @@
       <c r="L93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M93">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>473</v>
       </c>
@@ -10636,8 +11019,12 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M94">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>478</v>
       </c>
@@ -10674,8 +11061,12 @@
       <c r="L95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M95">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>481</v>
       </c>
@@ -10712,8 +11103,12 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M96">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>485</v>
       </c>
@@ -10750,8 +11145,12 @@
       <c r="L97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M97">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>488</v>
       </c>
@@ -10788,8 +11187,12 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M98">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>492</v>
       </c>
@@ -10826,8 +11229,12 @@
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M99">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>495</v>
       </c>
@@ -10864,8 +11271,12 @@
       <c r="L100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M100">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>501</v>
       </c>
@@ -10902,8 +11313,12 @@
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M101">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>506</v>
       </c>
@@ -10940,8 +11355,12 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M102">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>508</v>
       </c>
@@ -10978,8 +11397,12 @@
       <c r="L103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M103">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>514</v>
       </c>
@@ -11016,8 +11439,12 @@
       <c r="L104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M104">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>517</v>
       </c>
@@ -11054,8 +11481,12 @@
       <c r="L105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M105">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>523</v>
       </c>
@@ -11092,8 +11523,12 @@
       <c r="L106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M106">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>528</v>
       </c>
@@ -11130,8 +11565,12 @@
       <c r="L107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M107">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>529</v>
       </c>
@@ -11168,8 +11607,12 @@
       <c r="L108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M108">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>535</v>
       </c>
@@ -11206,8 +11649,12 @@
       <c r="L109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M109">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>541</v>
       </c>
@@ -11244,8 +11691,12 @@
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M110">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>547</v>
       </c>
@@ -11282,8 +11733,12 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M111">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>553</v>
       </c>
@@ -11320,8 +11775,12 @@
       <c r="L112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M112">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>556</v>
       </c>
@@ -11358,8 +11817,12 @@
       <c r="L113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M113">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>560</v>
       </c>
@@ -11396,8 +11859,12 @@
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M114">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>561</v>
       </c>
@@ -11434,8 +11901,12 @@
       <c r="L115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M115">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>565</v>
       </c>
@@ -11472,8 +11943,12 @@
       <c r="L116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M116">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>571</v>
       </c>
@@ -11510,8 +11985,12 @@
       <c r="L117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M117">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>574</v>
       </c>
@@ -11548,8 +12027,12 @@
       <c r="L118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M118">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>576</v>
       </c>
@@ -11586,8 +12069,12 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M119">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>581</v>
       </c>
@@ -11624,8 +12111,12 @@
       <c r="L120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M120">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>586</v>
       </c>
@@ -11662,8 +12153,12 @@
       <c r="L121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M121">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>590</v>
       </c>
@@ -11700,8 +12195,12 @@
       <c r="L122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M122">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>596</v>
       </c>
@@ -11738,8 +12237,12 @@
       <c r="L123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M123">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>602</v>
       </c>
@@ -11776,8 +12279,12 @@
       <c r="L124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M124">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>604</v>
       </c>
@@ -11814,8 +12321,12 @@
       <c r="L125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M125">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>608</v>
       </c>
@@ -11852,8 +12363,12 @@
       <c r="L126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M126">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>614</v>
       </c>
@@ -11890,8 +12405,12 @@
       <c r="L127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M127">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>620</v>
       </c>
@@ -11928,8 +12447,12 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M128">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>626</v>
       </c>
@@ -11966,8 +12489,12 @@
       <c r="L129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M129">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>631</v>
       </c>
@@ -12004,8 +12531,12 @@
       <c r="L130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M130">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>632</v>
       </c>
@@ -12042,8 +12573,12 @@
       <c r="L131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M131">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>638</v>
       </c>
@@ -12080,8 +12615,12 @@
       <c r="L132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M132">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>644</v>
       </c>
@@ -12118,8 +12657,12 @@
       <c r="L133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M133">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>648</v>
       </c>
@@ -12156,8 +12699,12 @@
       <c r="L134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M134">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>653</v>
       </c>
@@ -12194,8 +12741,12 @@
       <c r="L135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M135">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>659</v>
       </c>
@@ -12232,8 +12783,12 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M136">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>665</v>
       </c>
@@ -12270,8 +12825,12 @@
       <c r="L137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M137">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>670</v>
       </c>
@@ -12308,8 +12867,12 @@
       <c r="L138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M138">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>673</v>
       </c>
@@ -12346,8 +12909,12 @@
       <c r="L139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M139">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>679</v>
       </c>
@@ -12384,8 +12951,12 @@
       <c r="L140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M140">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>684</v>
       </c>
@@ -12422,8 +12993,12 @@
       <c r="L141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M141">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>686</v>
       </c>
@@ -12460,8 +13035,12 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M142">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>690</v>
       </c>
@@ -12498,8 +13077,12 @@
       <c r="L143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M143">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>695</v>
       </c>
@@ -12536,8 +13119,12 @@
       <c r="L144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M144">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>699</v>
       </c>
@@ -12574,8 +13161,12 @@
       <c r="L145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M145">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>702</v>
       </c>
@@ -12612,8 +13203,12 @@
       <c r="L146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M146">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>704</v>
       </c>
@@ -12650,8 +13245,12 @@
       <c r="L147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M147">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>709</v>
       </c>
@@ -12688,8 +13287,12 @@
       <c r="L148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M148">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>711</v>
       </c>
@@ -12726,8 +13329,12 @@
       <c r="L149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M149">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>715</v>
       </c>
@@ -12764,8 +13371,12 @@
       <c r="L150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M150">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>721</v>
       </c>
@@ -12802,8 +13413,12 @@
       <c r="L151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M151">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>726</v>
       </c>
@@ -12840,8 +13455,12 @@
       <c r="L152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M152">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>732</v>
       </c>
@@ -12878,8 +13497,12 @@
       <c r="L153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M153">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>736</v>
       </c>
@@ -12916,8 +13539,12 @@
       <c r="L154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M154">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>737</v>
       </c>
@@ -12954,8 +13581,12 @@
       <c r="L155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M155">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>742</v>
       </c>
@@ -12992,8 +13623,12 @@
       <c r="L156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M156">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>744</v>
       </c>
@@ -13030,8 +13665,12 @@
       <c r="L157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M157">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>745</v>
       </c>
@@ -13068,8 +13707,12 @@
       <c r="L158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M158">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>747</v>
       </c>
@@ -13106,8 +13749,12 @@
       <c r="L159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M159">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>753</v>
       </c>
@@ -13144,8 +13791,12 @@
       <c r="L160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M160">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>758</v>
       </c>
@@ -13182,8 +13833,12 @@
       <c r="L161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M161">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>762</v>
       </c>
@@ -13220,8 +13875,12 @@
       <c r="L162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M162">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>765</v>
       </c>
@@ -13258,8 +13917,12 @@
       <c r="L163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M163">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>771</v>
       </c>
@@ -13296,8 +13959,12 @@
       <c r="L164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M164">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>775</v>
       </c>
@@ -13334,8 +14001,12 @@
       <c r="L165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M165">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>776</v>
       </c>
@@ -13372,8 +14043,12 @@
       <c r="L166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M166">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>782</v>
       </c>
@@ -13410,8 +14085,12 @@
       <c r="L167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M167">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>788</v>
       </c>
@@ -13448,8 +14127,12 @@
       <c r="L168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M168">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>794</v>
       </c>
@@ -13486,8 +14169,12 @@
       <c r="L169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M169">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>797</v>
       </c>
@@ -13524,8 +14211,12 @@
       <c r="L170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M170">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>800</v>
       </c>
@@ -13562,8 +14253,12 @@
       <c r="L171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M171">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>803</v>
       </c>
@@ -13600,8 +14295,12 @@
       <c r="L172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M172">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>805</v>
       </c>
@@ -13638,8 +14337,12 @@
       <c r="L173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M173">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>811</v>
       </c>
@@ -13676,8 +14379,12 @@
       <c r="L174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M174">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>815</v>
       </c>
@@ -13714,8 +14421,12 @@
       <c r="L175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M175">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>821</v>
       </c>
@@ -13752,8 +14463,12 @@
       <c r="L176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M176">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>825</v>
       </c>
@@ -13790,8 +14505,12 @@
       <c r="L177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M177">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>829</v>
       </c>
@@ -13828,8 +14547,12 @@
       <c r="L178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M178">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>835</v>
       </c>
@@ -13866,8 +14589,12 @@
       <c r="L179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M179">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>841</v>
       </c>
@@ -13904,8 +14631,12 @@
       <c r="L180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M180">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>847</v>
       </c>
@@ -13942,8 +14673,12 @@
       <c r="L181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M181">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>849</v>
       </c>
@@ -13980,8 +14715,12 @@
       <c r="L182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M182">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>856</v>
       </c>
@@ -14018,8 +14757,12 @@
       <c r="L183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M183">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>862</v>
       </c>
@@ -14056,8 +14799,12 @@
       <c r="L184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M184">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>868</v>
       </c>
@@ -14094,8 +14841,12 @@
       <c r="L185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M185">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>874</v>
       </c>
@@ -14132,8 +14883,12 @@
       <c r="L186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M186">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>880</v>
       </c>
@@ -14170,8 +14925,12 @@
       <c r="L187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M187">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>884</v>
       </c>
@@ -14208,8 +14967,12 @@
       <c r="L188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M188">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>887</v>
       </c>
@@ -14246,8 +15009,12 @@
       <c r="L189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M189">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>893</v>
       </c>
@@ -14284,8 +15051,12 @@
       <c r="L190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M190">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>899</v>
       </c>
@@ -14322,8 +15093,12 @@
       <c r="L191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M191">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>905</v>
       </c>
@@ -14360,8 +15135,12 @@
       <c r="L192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M192">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>910</v>
       </c>
@@ -14398,8 +15177,12 @@
       <c r="L193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M193">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>916</v>
       </c>
@@ -14436,8 +15219,12 @@
       <c r="L194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M194">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>918</v>
       </c>
@@ -14474,8 +15261,12 @@
       <c r="L195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M195">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>924</v>
       </c>
@@ -14512,8 +15303,12 @@
       <c r="L196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M196">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>930</v>
       </c>
@@ -14550,8 +15345,12 @@
       <c r="L197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M197">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>936</v>
       </c>
@@ -14588,8 +15387,12 @@
       <c r="L198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M198">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>942</v>
       </c>
@@ -14626,8 +15429,12 @@
       <c r="L199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M199">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>943</v>
       </c>
@@ -14664,8 +15471,12 @@
       <c r="L200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M200">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>949</v>
       </c>
@@ -14702,8 +15513,12 @@
       <c r="L201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M201">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>952</v>
       </c>
@@ -14740,8 +15555,12 @@
       <c r="L202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M202">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>953</v>
       </c>
@@ -14778,8 +15597,12 @@
       <c r="L203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M203">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>954</v>
       </c>
@@ -14816,8 +15639,12 @@
       <c r="L204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M204">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>960</v>
       </c>
@@ -14854,8 +15681,12 @@
       <c r="L205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M205">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>966</v>
       </c>
@@ -14892,8 +15723,12 @@
       <c r="L206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M206">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>967</v>
       </c>
@@ -14930,8 +15765,12 @@
       <c r="L207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M207">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>973</v>
       </c>
@@ -14968,8 +15807,12 @@
       <c r="L208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M208">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>979</v>
       </c>
@@ -15006,8 +15849,12 @@
       <c r="L209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M209">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>980</v>
       </c>
@@ -15044,8 +15891,12 @@
       <c r="L210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M210">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>986</v>
       </c>
@@ -15082,8 +15933,12 @@
       <c r="L211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M211">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>992</v>
       </c>
@@ -15120,8 +15975,12 @@
       <c r="L212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M212">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>997</v>
       </c>
@@ -15158,8 +16017,12 @@
       <c r="L213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M213">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>999</v>
       </c>
@@ -15196,8 +16059,12 @@
       <c r="L214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M214">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1005</v>
       </c>
@@ -15234,8 +16101,12 @@
       <c r="L215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M215">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>1006</v>
       </c>
@@ -15272,8 +16143,12 @@
       <c r="L216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M216">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>1011</v>
       </c>
@@ -15310,8 +16185,12 @@
       <c r="L217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M217">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1016</v>
       </c>
@@ -15348,8 +16227,12 @@
       <c r="L218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M218">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1022</v>
       </c>
@@ -15386,8 +16269,12 @@
       <c r="L219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M219">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1026</v>
       </c>
@@ -15424,8 +16311,12 @@
       <c r="L220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M220">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1031</v>
       </c>
@@ -15462,8 +16353,12 @@
       <c r="L221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M221">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1037</v>
       </c>
@@ -15500,8 +16395,12 @@
       <c r="L222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M222">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1042</v>
       </c>
@@ -15538,8 +16437,12 @@
       <c r="L223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M223">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1047</v>
       </c>
@@ -15576,8 +16479,12 @@
       <c r="L224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M224">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>1052</v>
       </c>
@@ -15614,8 +16521,12 @@
       <c r="L225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M225">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1055</v>
       </c>
@@ -15652,8 +16563,12 @@
       <c r="L226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M226">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1061</v>
       </c>
@@ -15690,8 +16605,12 @@
       <c r="L227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M227">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1063</v>
       </c>
@@ -15728,8 +16647,12 @@
       <c r="L228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M228">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1069</v>
       </c>
@@ -15766,8 +16689,12 @@
       <c r="L229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M229">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1071</v>
       </c>
@@ -15804,8 +16731,12 @@
       <c r="L230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M230">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1074</v>
       </c>
@@ -15842,8 +16773,12 @@
       <c r="L231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M231">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1076</v>
       </c>
@@ -15880,8 +16815,12 @@
       <c r="L232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M232">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1077</v>
       </c>
@@ -15918,8 +16857,12 @@
       <c r="L233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M233">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1080</v>
       </c>
@@ -15956,8 +16899,12 @@
       <c r="L234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M234">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1084</v>
       </c>
@@ -15994,8 +16941,12 @@
       <c r="L235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M235">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1087</v>
       </c>
@@ -16032,8 +16983,12 @@
       <c r="L236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M236">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1093</v>
       </c>
@@ -16070,8 +17025,12 @@
       <c r="L237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M237">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1094</v>
       </c>
@@ -16108,8 +17067,12 @@
       <c r="L238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M238">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1099</v>
       </c>
@@ -16146,8 +17109,12 @@
       <c r="L239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M239">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1102</v>
       </c>
@@ -16184,8 +17151,12 @@
       <c r="L240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M240">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1104</v>
       </c>
@@ -16222,8 +17193,12 @@
       <c r="L241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M241">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1109</v>
       </c>
@@ -16260,8 +17235,12 @@
       <c r="L242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M242">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1110</v>
       </c>
@@ -16298,8 +17277,12 @@
       <c r="L243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M243">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1111</v>
       </c>
@@ -16336,8 +17319,12 @@
       <c r="L244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M244">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1112</v>
       </c>
@@ -16374,8 +17361,12 @@
       <c r="L245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M245">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1118</v>
       </c>
@@ -16412,8 +17403,12 @@
       <c r="L246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M246">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1124</v>
       </c>
@@ -16450,8 +17445,12 @@
       <c r="L247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M247">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1127</v>
       </c>
@@ -16488,8 +17487,12 @@
       <c r="L248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M248">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1131</v>
       </c>
@@ -16526,8 +17529,12 @@
       <c r="L249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M249">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1137</v>
       </c>
@@ -16564,8 +17571,12 @@
       <c r="L250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M250">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1143</v>
       </c>
@@ -16602,8 +17613,12 @@
       <c r="L251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M251">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1149</v>
       </c>
@@ -16640,8 +17655,12 @@
       <c r="L252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M252">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1155</v>
       </c>
@@ -16678,8 +17697,12 @@
       <c r="L253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M253">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1161</v>
       </c>
@@ -16716,8 +17739,12 @@
       <c r="L254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M254">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1167</v>
       </c>
@@ -16754,8 +17781,12 @@
       <c r="L255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M255">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1171</v>
       </c>
@@ -16792,8 +17823,12 @@
       <c r="L256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M256">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1172</v>
       </c>
@@ -16830,8 +17865,12 @@
       <c r="L257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M257">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1178</v>
       </c>
@@ -16868,8 +17907,12 @@
       <c r="L258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M258">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1184</v>
       </c>
@@ -16906,8 +17949,12 @@
       <c r="L259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M259">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1186</v>
       </c>
@@ -16944,8 +17991,12 @@
       <c r="L260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M260">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1187</v>
       </c>
@@ -16982,8 +18033,12 @@
       <c r="L261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M261">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1193</v>
       </c>
@@ -17020,8 +18075,12 @@
       <c r="L262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M262">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1199</v>
       </c>
@@ -17058,8 +18117,12 @@
       <c r="L263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M263">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1200</v>
       </c>
@@ -17096,8 +18159,12 @@
       <c r="L264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M264">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1206</v>
       </c>
@@ -17134,8 +18201,12 @@
       <c r="L265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M265">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1212</v>
       </c>
@@ -17172,8 +18243,12 @@
       <c r="L266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M266">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1213</v>
       </c>
@@ -17210,8 +18285,12 @@
       <c r="L267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M267">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1214</v>
       </c>
@@ -17248,8 +18327,12 @@
       <c r="L268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M268">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1219</v>
       </c>
@@ -17286,8 +18369,12 @@
       <c r="L269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M269">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1225</v>
       </c>
@@ -17324,8 +18411,12 @@
       <c r="L270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M270">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1231</v>
       </c>
@@ -17362,8 +18453,12 @@
       <c r="L271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M271">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1236</v>
       </c>
@@ -17400,8 +18495,12 @@
       <c r="L272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M272">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1243</v>
       </c>
@@ -17438,8 +18537,12 @@
       <c r="L273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M273">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1249</v>
       </c>
@@ -17476,8 +18579,12 @@
       <c r="L274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M274">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1250</v>
       </c>
@@ -17514,8 +18621,12 @@
       <c r="L275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M275">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1251</v>
       </c>
@@ -17552,8 +18663,12 @@
       <c r="L276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M276">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1253</v>
       </c>
@@ -17590,8 +18705,12 @@
       <c r="L277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M277">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1256</v>
       </c>
@@ -17628,8 +18747,12 @@
       <c r="L278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M278">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1257</v>
       </c>
@@ -17666,8 +18789,12 @@
       <c r="L279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M279">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1260</v>
       </c>
@@ -17704,8 +18831,12 @@
       <c r="L280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M280">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1266</v>
       </c>
@@ -17742,8 +18873,12 @@
       <c r="L281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M281">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1272</v>
       </c>
@@ -17780,8 +18915,12 @@
       <c r="L282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M282">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1274</v>
       </c>
@@ -17818,8 +18957,12 @@
       <c r="L283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M283">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1279</v>
       </c>
@@ -17856,8 +18999,12 @@
       <c r="L284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M284">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1281</v>
       </c>
@@ -17894,8 +19041,12 @@
       <c r="L285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M285">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1287</v>
       </c>
@@ -17932,8 +19083,12 @@
       <c r="L286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M286">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1293</v>
       </c>
@@ -17970,8 +19125,12 @@
       <c r="L287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M287">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1298</v>
       </c>
@@ -18008,8 +19167,12 @@
       <c r="L288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M288">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1303</v>
       </c>
@@ -18046,8 +19209,12 @@
       <c r="L289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M289">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1308</v>
       </c>
@@ -18084,8 +19251,12 @@
       <c r="L290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M290">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1313</v>
       </c>
@@ -18122,8 +19293,12 @@
       <c r="L291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M291">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1317</v>
       </c>
@@ -18160,8 +19335,12 @@
       <c r="L292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M292">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1321</v>
       </c>
@@ -18198,8 +19377,12 @@
       <c r="L293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M293">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1322</v>
       </c>
@@ -18236,8 +19419,12 @@
       <c r="L294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M294">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1326</v>
       </c>
@@ -18274,8 +19461,12 @@
       <c r="L295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M295">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1328</v>
       </c>
@@ -18312,8 +19503,12 @@
       <c r="L296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M296">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1332</v>
       </c>
@@ -18350,8 +19545,12 @@
       <c r="L297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M297">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1336</v>
       </c>
@@ -18388,8 +19587,12 @@
       <c r="L298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M298">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1338</v>
       </c>
@@ -18426,8 +19629,12 @@
       <c r="L299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M299">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1339</v>
       </c>
@@ -18464,8 +19671,12 @@
       <c r="L300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M300">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1345</v>
       </c>
@@ -18502,8 +19713,12 @@
       <c r="L301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M301">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1348</v>
       </c>
@@ -18540,8 +19755,12 @@
       <c r="L302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M302">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1349</v>
       </c>
@@ -18578,8 +19797,12 @@
       <c r="L303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M303">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1355</v>
       </c>
@@ -18616,8 +19839,12 @@
       <c r="L304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M304">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1361</v>
       </c>
@@ -18654,8 +19881,12 @@
       <c r="L305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M305">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1367</v>
       </c>
@@ -18692,8 +19923,12 @@
       <c r="L306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M306">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1368</v>
       </c>
@@ -18730,8 +19965,12 @@
       <c r="L307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M307">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1369</v>
       </c>
@@ -18768,8 +20007,12 @@
       <c r="L308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M308">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1370</v>
       </c>
@@ -18806,8 +20049,12 @@
       <c r="L309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M309">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1374</v>
       </c>
@@ -18844,8 +20091,12 @@
       <c r="L310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M310">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1378</v>
       </c>
@@ -18882,8 +20133,12 @@
       <c r="L311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M311">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1379</v>
       </c>
@@ -18920,8 +20175,12 @@
       <c r="L312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M312">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1383</v>
       </c>
@@ -18958,8 +20217,12 @@
       <c r="L313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M313">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1385</v>
       </c>
@@ -18996,8 +20259,12 @@
       <c r="L314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M314">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1386</v>
       </c>
@@ -19034,8 +20301,12 @@
       <c r="L315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M315">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1387</v>
       </c>
@@ -19072,8 +20343,12 @@
       <c r="L316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M316">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1388</v>
       </c>
@@ -19110,8 +20385,12 @@
       <c r="L317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M317">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1394</v>
       </c>
@@ -19148,8 +20427,12 @@
       <c r="L318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M318">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1399</v>
       </c>
@@ -19186,8 +20469,12 @@
       <c r="L319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M319">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1400</v>
       </c>
@@ -19224,8 +20511,12 @@
       <c r="L320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M320">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1405</v>
       </c>
@@ -19262,8 +20553,12 @@
       <c r="L321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M321">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1406</v>
       </c>
@@ -19300,8 +20595,12 @@
       <c r="L322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M322">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1407</v>
       </c>
@@ -19338,8 +20637,12 @@
       <c r="L323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M323">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1408</v>
       </c>
@@ -19376,8 +20679,12 @@
       <c r="L324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M324">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1409</v>
       </c>
@@ -19414,8 +20721,12 @@
       <c r="L325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M325">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1411</v>
       </c>
@@ -19452,8 +20763,12 @@
       <c r="L326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M326">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1417</v>
       </c>
@@ -19490,8 +20805,12 @@
       <c r="L327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M327">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1420</v>
       </c>
@@ -19528,8 +20847,12 @@
       <c r="L328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M328">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1424</v>
       </c>
@@ -19566,8 +20889,12 @@
       <c r="L329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M329">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1428</v>
       </c>
@@ -19604,8 +20931,12 @@
       <c r="L330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M330">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1430</v>
       </c>
@@ -19642,8 +20973,12 @@
       <c r="L331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M331">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1431</v>
       </c>
@@ -19680,8 +21015,12 @@
       <c r="L332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M332">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1432</v>
       </c>
@@ -19718,8 +21057,12 @@
       <c r="L333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M333">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1437</v>
       </c>
@@ -19756,8 +21099,12 @@
       <c r="L334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M334">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1443</v>
       </c>
@@ -19794,8 +21141,12 @@
       <c r="L335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M335">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1448</v>
       </c>
@@ -19832,8 +21183,12 @@
       <c r="L336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M336">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1449</v>
       </c>
@@ -19870,8 +21225,12 @@
       <c r="L337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M337">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1452</v>
       </c>
@@ -19908,8 +21267,12 @@
       <c r="L338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M338">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1454</v>
       </c>
@@ -19946,8 +21309,12 @@
       <c r="L339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M339">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1460</v>
       </c>
@@ -19984,8 +21351,12 @@
       <c r="L340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M340">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1465</v>
       </c>
@@ -20022,8 +21393,12 @@
       <c r="L341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M341">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1466</v>
       </c>
@@ -20060,8 +21435,12 @@
       <c r="L342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M342">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1468</v>
       </c>
@@ -20098,8 +21477,12 @@
       <c r="L343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M343">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1473</v>
       </c>
@@ -20136,8 +21519,12 @@
       <c r="L344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M344">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1476</v>
       </c>
@@ -20174,8 +21561,12 @@
       <c r="L345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M345">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1477</v>
       </c>
@@ -20212,8 +21603,12 @@
       <c r="L346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M346">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1478</v>
       </c>
@@ -20250,8 +21645,12 @@
       <c r="L347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M347">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1479</v>
       </c>
@@ -20288,8 +21687,12 @@
       <c r="L348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M348">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1482</v>
       </c>
@@ -20326,8 +21729,12 @@
       <c r="L349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M349">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1484</v>
       </c>
@@ -20364,8 +21771,12 @@
       <c r="L350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M350">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1486</v>
       </c>
@@ -20402,8 +21813,12 @@
       <c r="L351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M351">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1490</v>
       </c>
@@ -20440,8 +21855,12 @@
       <c r="L352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M352">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1496</v>
       </c>
@@ -20478,8 +21897,12 @@
       <c r="L353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M353">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1497</v>
       </c>
@@ -20516,8 +21939,12 @@
       <c r="L354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M354">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1498</v>
       </c>
@@ -20554,8 +21981,12 @@
       <c r="L355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M355">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1500</v>
       </c>
@@ -20592,8 +22023,12 @@
       <c r="L356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M356">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1501</v>
       </c>
@@ -20630,8 +22065,12 @@
       <c r="L357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M357">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1502</v>
       </c>
@@ -20668,8 +22107,12 @@
       <c r="L358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M358">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1503</v>
       </c>
@@ -20706,8 +22149,12 @@
       <c r="L359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M359">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1507</v>
       </c>
@@ -20744,8 +22191,12 @@
       <c r="L360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M360">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1511</v>
       </c>
@@ -20782,8 +22233,12 @@
       <c r="L361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M361">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1514</v>
       </c>
@@ -20820,8 +22275,12 @@
       <c r="L362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M362">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1519</v>
       </c>
@@ -20858,8 +22317,12 @@
       <c r="L363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M363">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1525</v>
       </c>
@@ -20896,8 +22359,12 @@
       <c r="L364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M364">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1528</v>
       </c>
@@ -20934,8 +22401,12 @@
       <c r="L365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M365">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1534</v>
       </c>
@@ -20972,8 +22443,12 @@
       <c r="L366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M366">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1539</v>
       </c>
@@ -21010,8 +22485,12 @@
       <c r="L367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M367">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1545</v>
       </c>
@@ -21048,8 +22527,12 @@
       <c r="L368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M368">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1550</v>
       </c>
@@ -21086,8 +22569,12 @@
       <c r="L369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M369">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1556</v>
       </c>
@@ -21124,8 +22611,12 @@
       <c r="L370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M370">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1557</v>
       </c>
@@ -21162,8 +22653,12 @@
       <c r="L371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M371">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1558</v>
       </c>
@@ -21200,8 +22695,12 @@
       <c r="L372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M372">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1559</v>
       </c>
@@ -21238,8 +22737,12 @@
       <c r="L373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M373">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1562</v>
       </c>
@@ -21276,8 +22779,12 @@
       <c r="L374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M374">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1568</v>
       </c>
@@ -21314,8 +22821,12 @@
       <c r="L375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M375">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1571</v>
       </c>
@@ -21352,8 +22863,12 @@
       <c r="L376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M376">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1573</v>
       </c>
@@ -21390,8 +22905,12 @@
       <c r="L377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M377">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1579</v>
       </c>
@@ -21428,8 +22947,12 @@
       <c r="L378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M378">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1585</v>
       </c>
@@ -21466,8 +22989,12 @@
       <c r="L379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M379">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1586</v>
       </c>
@@ -21504,8 +23031,12 @@
       <c r="L380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M380">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1591</v>
       </c>
@@ -21542,8 +23073,12 @@
       <c r="L381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M381">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1597</v>
       </c>
@@ -21580,8 +23115,12 @@
       <c r="L382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M382">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1603</v>
       </c>
@@ -21618,8 +23157,12 @@
       <c r="L383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M383">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1604</v>
       </c>
@@ -21656,8 +23199,12 @@
       <c r="L384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M384">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1609</v>
       </c>
@@ -21694,8 +23241,12 @@
       <c r="L385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M385">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1610</v>
       </c>
@@ -21732,8 +23283,12 @@
       <c r="L386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M386">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1616</v>
       </c>
@@ -21770,8 +23325,12 @@
       <c r="L387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M387">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1618</v>
       </c>
@@ -21808,8 +23367,12 @@
       <c r="L388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M388">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1624</v>
       </c>
@@ -21846,8 +23409,12 @@
       <c r="L389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M389">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1629</v>
       </c>
@@ -21884,8 +23451,12 @@
       <c r="L390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M390">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1635</v>
       </c>
@@ -21922,8 +23493,12 @@
       <c r="L391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M391">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1639</v>
       </c>
@@ -21960,8 +23535,12 @@
       <c r="L392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M392">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1643</v>
       </c>
@@ -21998,8 +23577,12 @@
       <c r="L393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M393">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1649</v>
       </c>
@@ -22036,8 +23619,12 @@
       <c r="L394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M394">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1655</v>
       </c>
@@ -22074,8 +23661,12 @@
       <c r="L395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M395">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1659</v>
       </c>
@@ -22112,8 +23703,12 @@
       <c r="L396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M396">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1661</v>
       </c>
@@ -22150,8 +23745,12 @@
       <c r="L397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M397">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1666</v>
       </c>
@@ -22188,8 +23787,12 @@
       <c r="L398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M398">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1668</v>
       </c>
@@ -22226,8 +23829,12 @@
       <c r="L399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M399">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1674</v>
       </c>
@@ -22264,8 +23871,12 @@
       <c r="L400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M400">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1676</v>
       </c>
@@ -22302,8 +23913,12 @@
       <c r="L401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M401">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1682</v>
       </c>
@@ -22340,8 +23955,12 @@
       <c r="L402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M402">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1685</v>
       </c>
@@ -22378,8 +23997,12 @@
       <c r="L403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M403">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1690</v>
       </c>
@@ -22416,8 +24039,12 @@
       <c r="L404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M404">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1696</v>
       </c>
@@ -22454,8 +24081,12 @@
       <c r="L405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M405">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1697</v>
       </c>
@@ -22492,8 +24123,12 @@
       <c r="L406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M406">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1700</v>
       </c>
@@ -22530,8 +24165,12 @@
       <c r="L407">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M407">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1706</v>
       </c>
@@ -22568,8 +24207,12 @@
       <c r="L408">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M408">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1707</v>
       </c>
@@ -22606,8 +24249,12 @@
       <c r="L409">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M409">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1709</v>
       </c>
@@ -22644,8 +24291,12 @@
       <c r="L410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M410">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1712</v>
       </c>
@@ -22682,8 +24333,12 @@
       <c r="L411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M411">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1718</v>
       </c>
@@ -22720,8 +24375,12 @@
       <c r="L412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M412">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1724</v>
       </c>
@@ -22758,8 +24417,12 @@
       <c r="L413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M413">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1728</v>
       </c>
@@ -22796,8 +24459,12 @@
       <c r="L414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M414">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1732</v>
       </c>
@@ -22834,8 +24501,12 @@
       <c r="L415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M415">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1738</v>
       </c>
@@ -22872,8 +24543,12 @@
       <c r="L416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M416">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1744</v>
       </c>
@@ -22910,8 +24585,12 @@
       <c r="L417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M417">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1745</v>
       </c>
@@ -22948,8 +24627,12 @@
       <c r="L418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M418">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1751</v>
       </c>
@@ -22986,8 +24669,12 @@
       <c r="L419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M419">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1754</v>
       </c>
@@ -23024,8 +24711,12 @@
       <c r="L420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M420">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1756</v>
       </c>
@@ -23062,8 +24753,12 @@
       <c r="L421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M421">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1757</v>
       </c>
@@ -23100,8 +24795,12 @@
       <c r="L422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M422">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1759</v>
       </c>
@@ -23138,8 +24837,12 @@
       <c r="L423">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M423">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1764</v>
       </c>
@@ -23176,8 +24879,12 @@
       <c r="L424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M424">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1767</v>
       </c>
@@ -23214,8 +24921,12 @@
       <c r="L425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M425">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1768</v>
       </c>
@@ -23252,8 +24963,12 @@
       <c r="L426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M426">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1773</v>
       </c>
@@ -23290,8 +25005,12 @@
       <c r="L427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M427">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1775</v>
       </c>
@@ -23328,8 +25047,12 @@
       <c r="L428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M428">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1779</v>
       </c>
@@ -23366,8 +25089,12 @@
       <c r="L429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M429">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1780</v>
       </c>
@@ -23404,8 +25131,12 @@
       <c r="L430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M430">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1786</v>
       </c>
@@ -23442,8 +25173,12 @@
       <c r="L431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M431">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1792</v>
       </c>
@@ -23480,8 +25215,12 @@
       <c r="L432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M432">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1794</v>
       </c>
@@ -23518,8 +25257,12 @@
       <c r="L433">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M433">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1799</v>
       </c>
@@ -23556,8 +25299,12 @@
       <c r="L434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M434">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1804</v>
       </c>
@@ -23594,8 +25341,12 @@
       <c r="L435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M435">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1810</v>
       </c>
@@ -23632,8 +25383,12 @@
       <c r="L436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M436">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1816</v>
       </c>
@@ -23670,8 +25425,12 @@
       <c r="L437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M437">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1817</v>
       </c>
@@ -23708,8 +25467,12 @@
       <c r="L438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M438">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1822</v>
       </c>
@@ -23746,8 +25509,12 @@
       <c r="L439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M439">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1827</v>
       </c>
@@ -23784,8 +25551,12 @@
       <c r="L440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M440">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1833</v>
       </c>
@@ -23822,8 +25593,12 @@
       <c r="L441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M441">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1836</v>
       </c>
@@ -23860,8 +25635,12 @@
       <c r="L442">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M442">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1841</v>
       </c>
@@ -23898,8 +25677,12 @@
       <c r="L443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M443">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1847</v>
       </c>
@@ -23936,8 +25719,12 @@
       <c r="L444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M444">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1852</v>
       </c>
@@ -23974,8 +25761,12 @@
       <c r="L445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M445">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1857</v>
       </c>
@@ -24012,8 +25803,12 @@
       <c r="L446">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M446">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1860</v>
       </c>
@@ -24050,8 +25845,12 @@
       <c r="L447">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M447">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1861</v>
       </c>
@@ -24088,8 +25887,12 @@
       <c r="L448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M448">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1863</v>
       </c>
@@ -24126,8 +25929,12 @@
       <c r="L449">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M449">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1868</v>
       </c>
@@ -24164,8 +25971,12 @@
       <c r="L450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M450">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1873</v>
       </c>
@@ -24202,8 +26013,12 @@
       <c r="L451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M451">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1879</v>
       </c>
@@ -24240,8 +26055,12 @@
       <c r="L452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M452">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1885</v>
       </c>
@@ -24278,8 +26097,12 @@
       <c r="L453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M453">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1889</v>
       </c>
@@ -24316,8 +26139,12 @@
       <c r="L454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M454">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1892</v>
       </c>
@@ -24354,8 +26181,12 @@
       <c r="L455">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M455">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1893</v>
       </c>
@@ -24392,8 +26223,12 @@
       <c r="L456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M456">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1899</v>
       </c>
@@ -24430,8 +26265,12 @@
       <c r="L457">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M457">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1903</v>
       </c>
@@ -24468,8 +26307,12 @@
       <c r="L458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M458">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1909</v>
       </c>
@@ -24506,8 +26349,12 @@
       <c r="L459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M459">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1912</v>
       </c>
@@ -24544,8 +26391,12 @@
       <c r="L460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M460">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1916</v>
       </c>
@@ -24582,8 +26433,12 @@
       <c r="L461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M461">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1918</v>
       </c>
@@ -24620,8 +26475,12 @@
       <c r="L462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M462">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1920</v>
       </c>
@@ -24658,8 +26517,12 @@
       <c r="L463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M463">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1924</v>
       </c>
@@ -24696,8 +26559,12 @@
       <c r="L464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M464">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1926</v>
       </c>
@@ -24734,8 +26601,12 @@
       <c r="L465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M465">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1931</v>
       </c>
@@ -24772,8 +26643,12 @@
       <c r="L466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M466">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1936</v>
       </c>
@@ -24810,8 +26685,12 @@
       <c r="L467">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M467">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1940</v>
       </c>
@@ -24848,8 +26727,12 @@
       <c r="L468">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M468">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1944</v>
       </c>
@@ -24886,8 +26769,12 @@
       <c r="L469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M469">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1945</v>
       </c>
@@ -24924,8 +26811,12 @@
       <c r="L470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M470">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1948</v>
       </c>
@@ -24962,8 +26853,12 @@
       <c r="L471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M471">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1952</v>
       </c>
@@ -25000,8 +26895,12 @@
       <c r="L472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M472">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1953</v>
       </c>
@@ -25038,8 +26937,12 @@
       <c r="L473">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M473">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1958</v>
       </c>
@@ -25076,8 +26979,12 @@
       <c r="L474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M474">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1959</v>
       </c>
@@ -25114,8 +27021,12 @@
       <c r="L475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M475">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1964</v>
       </c>
@@ -25152,8 +27063,12 @@
       <c r="L476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M476">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1965</v>
       </c>
@@ -25190,8 +27105,12 @@
       <c r="L477">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M477">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1970</v>
       </c>
@@ -25228,8 +27147,12 @@
       <c r="L478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M478">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1973</v>
       </c>
@@ -25266,8 +27189,12 @@
       <c r="L479">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M479">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1977</v>
       </c>
@@ -25304,8 +27231,12 @@
       <c r="L480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M480">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1981</v>
       </c>
@@ -25342,8 +27273,12 @@
       <c r="L481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M481">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1985</v>
       </c>
@@ -25380,8 +27315,12 @@
       <c r="L482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M482">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1991</v>
       </c>
@@ -25418,8 +27357,12 @@
       <c r="L483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M483">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1995</v>
       </c>
@@ -25456,8 +27399,12 @@
       <c r="L484">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M484">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1996</v>
       </c>
@@ -25494,8 +27441,12 @@
       <c r="L485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M485">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>2001</v>
       </c>
@@ -25532,8 +27483,12 @@
       <c r="L486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M486">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>2004</v>
       </c>
@@ -25570,8 +27525,12 @@
       <c r="L487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M487">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>2008</v>
       </c>
@@ -25608,8 +27567,12 @@
       <c r="L488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M488">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>2009</v>
       </c>
@@ -25646,8 +27609,12 @@
       <c r="L489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M489">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>2012</v>
       </c>
@@ -25684,8 +27651,12 @@
       <c r="L490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M490">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>2014</v>
       </c>
@@ -25722,8 +27693,12 @@
       <c r="L491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M491">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>2019</v>
       </c>
@@ -25760,8 +27735,12 @@
       <c r="L492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M492">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>2021</v>
       </c>
@@ -25798,8 +27777,12 @@
       <c r="L493">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M493">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>2027</v>
       </c>
@@ -25836,8 +27819,12 @@
       <c r="L494">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M494">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>2029</v>
       </c>
@@ -25874,8 +27861,12 @@
       <c r="L495">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M495">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>2033</v>
       </c>
@@ -25912,8 +27903,12 @@
       <c r="L496">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M496">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>2036</v>
       </c>
@@ -25950,8 +27945,12 @@
       <c r="L497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M497">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>2039</v>
       </c>
@@ -25988,8 +27987,12 @@
       <c r="L498">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M498">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>2041</v>
       </c>
@@ -26026,8 +28029,12 @@
       <c r="L499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M499">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>2043</v>
       </c>
@@ -26064,8 +28071,12 @@
       <c r="L500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M500">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>2044</v>
       </c>
@@ -26102,8 +28113,12 @@
       <c r="L501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M501">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>2046</v>
       </c>
@@ -26140,8 +28155,12 @@
       <c r="L502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M502">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>2048</v>
       </c>
@@ -26178,8 +28197,12 @@
       <c r="L503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M503">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>2050</v>
       </c>
@@ -26216,8 +28239,12 @@
       <c r="L504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M504">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>2054</v>
       </c>
@@ -26254,8 +28281,12 @@
       <c r="L505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M505">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2055</v>
       </c>
@@ -26292,8 +28323,12 @@
       <c r="L506">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M506">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>2057</v>
       </c>
@@ -26330,8 +28365,12 @@
       <c r="L507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M507">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2062</v>
       </c>
@@ -26368,8 +28407,12 @@
       <c r="L508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M508">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>2063</v>
       </c>
@@ -26406,8 +28449,12 @@
       <c r="L509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M509">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2066</v>
       </c>
@@ -26444,8 +28491,12 @@
       <c r="L510">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M510">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>2069</v>
       </c>
@@ -26482,8 +28533,12 @@
       <c r="L511">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M511">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2071</v>
       </c>
@@ -26520,8 +28575,12 @@
       <c r="L512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M512">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>2074</v>
       </c>
@@ -26558,8 +28617,12 @@
       <c r="L513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M513">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>2076</v>
       </c>
@@ -26596,8 +28659,12 @@
       <c r="L514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M514">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>2079</v>
       </c>
@@ -26634,8 +28701,12 @@
       <c r="L515">
         <v>1</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M515">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>2085</v>
       </c>
@@ -26672,8 +28743,12 @@
       <c r="L516">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M516">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>2087</v>
       </c>
@@ -26710,8 +28785,12 @@
       <c r="L517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M517">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>2089</v>
       </c>
@@ -26748,8 +28827,12 @@
       <c r="L518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M518">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>2094</v>
       </c>
@@ -26786,8 +28869,12 @@
       <c r="L519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M519">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>2098</v>
       </c>
@@ -26824,8 +28911,12 @@
       <c r="L520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M520">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>2099</v>
       </c>
@@ -26862,8 +28953,12 @@
       <c r="L521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M521">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>2105</v>
       </c>
@@ -26900,8 +28995,12 @@
       <c r="L522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M522">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>2106</v>
       </c>
@@ -26938,8 +29037,12 @@
       <c r="L523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M523">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>2111</v>
       </c>
@@ -26976,8 +29079,12 @@
       <c r="L524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M524">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>2117</v>
       </c>
@@ -27014,8 +29121,12 @@
       <c r="L525">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M525">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>2123</v>
       </c>
@@ -27052,8 +29163,12 @@
       <c r="L526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M526">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>2125</v>
       </c>
@@ -27090,8 +29205,12 @@
       <c r="L527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M527">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>2128</v>
       </c>
@@ -27128,8 +29247,12 @@
       <c r="L528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M528">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>2129</v>
       </c>
@@ -27166,8 +29289,12 @@
       <c r="L529">
         <v>1</v>
       </c>
-    </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M529">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>2134</v>
       </c>
@@ -27204,8 +29331,12 @@
       <c r="L530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M530">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>2139</v>
       </c>
@@ -27242,8 +29373,12 @@
       <c r="L531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M531">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>2141</v>
       </c>
@@ -27280,8 +29415,12 @@
       <c r="L532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M532">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>2142</v>
       </c>
@@ -27318,8 +29457,12 @@
       <c r="L533">
         <v>1</v>
       </c>
-    </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M533">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>2148</v>
       </c>
@@ -27356,8 +29499,12 @@
       <c r="L534">
         <v>1</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M534">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>2149</v>
       </c>
@@ -27394,8 +29541,12 @@
       <c r="L535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M535">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>2151</v>
       </c>
@@ -27432,8 +29583,12 @@
       <c r="L536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M536">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>2152</v>
       </c>
@@ -27470,8 +29625,12 @@
       <c r="L537">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M537">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>2153</v>
       </c>
@@ -27508,8 +29667,12 @@
       <c r="L538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M538">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>2159</v>
       </c>
@@ -27546,8 +29709,12 @@
       <c r="L539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M539">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>2160</v>
       </c>
@@ -27584,8 +29751,12 @@
       <c r="L540">
         <v>1</v>
       </c>
-    </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M540">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>2166</v>
       </c>
@@ -27621,6 +29792,10 @@
       </c>
       <c r="L541">
         <v>0</v>
+      </c>
+      <c r="M541">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(MathQA_final[[#This Row],[Question]])," "))-1</f>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -27653,7 +29828,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -27665,7 +29840,7 @@
       <c r="F2" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>855</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -27677,7 +29852,7 @@
       <c r="K2" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>1518</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -27691,7 +29866,7 @@
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -27702,7 +29877,7 @@
         <f>COUNTIFS(MathQA_final!H:H,C2,MathQA_final!K:K,D3,MathQA_final!L:L,'Count Eval'!E3)</f>
         <v>40</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
       <c r="I3">
         <v>0</v>
       </c>
@@ -27713,7 +29888,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H2,MathQA_final[Eval GPT-3.5],I3,MathQA_final[Eval GPT-4],'Count Eval'!J3)</f>
         <v>47</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3"/>
       <c r="N3">
         <v>0</v>
       </c>
@@ -27726,7 +29901,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4">
         <v>0</v>
       </c>
@@ -27737,7 +29912,7 @@
         <f>COUNTIFS(MathQA_final!H:H,C2,MathQA_final!K:K,D4,MathQA_final!L:L,'Count Eval'!E4)</f>
         <v>26</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4">
         <v>0</v>
       </c>
@@ -27748,7 +29923,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H2,MathQA_final[Eval GPT-3.5],I4,MathQA_final[Eval GPT-4],'Count Eval'!J4)</f>
         <v>21</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="3"/>
       <c r="N4">
         <v>0</v>
       </c>
@@ -27761,7 +29936,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5">
         <v>1</v>
       </c>
@@ -27772,7 +29947,7 @@
         <f>COUNTIFS(MathQA_final!H:H,C2,MathQA_final!K:K,D5,MathQA_final!L:L,'Count Eval'!E5)</f>
         <v>8</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5">
         <v>1</v>
       </c>
@@ -27783,7 +29958,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H2,MathQA_final[Eval GPT-3.5],I5,MathQA_final[Eval GPT-4],'Count Eval'!J5)</f>
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="3"/>
       <c r="N5">
         <v>1</v>
       </c>
@@ -27796,7 +29971,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6">
         <v>1</v>
       </c>
@@ -27807,7 +29982,7 @@
         <f>COUNTIFS(MathQA_final!H:H,C2,MathQA_final!K:K,D6,MathQA_final!L:L,'Count Eval'!E6)</f>
         <v>16</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6">
         <v>1</v>
       </c>
@@ -27818,7 +29993,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H2,MathQA_final[Eval GPT-3.5],I6,MathQA_final[Eval GPT-4],'Count Eval'!J6)</f>
         <v>7</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="3"/>
       <c r="N6">
         <v>1</v>
       </c>
@@ -27831,36 +30006,36 @@
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7">
         <f>SUM(F3:F6)</f>
         <v>90</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3"/>
       <c r="K7">
         <f>SUM(K3:K6)</f>
         <v>90</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="3"/>
       <c r="P7">
         <f>SUM(P3:P6)</f>
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>467</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -27872,7 +30047,7 @@
       <c r="F9" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>1242</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -27884,7 +30059,7 @@
       <c r="K9" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>1884</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -27898,7 +30073,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10">
         <v>0</v>
       </c>
@@ -27909,7 +30084,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],C9,MathQA_final[Eval GPT-3.5],D10,MathQA_final[Eval GPT-4],'Count Eval'!E10)</f>
         <v>48</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="I10">
         <v>0</v>
       </c>
@@ -27920,7 +30095,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H9,MathQA_final[Eval GPT-3.5],I10,MathQA_final[Eval GPT-4],'Count Eval'!J10)</f>
         <v>46</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="3"/>
       <c r="N10">
         <v>0</v>
       </c>
@@ -27933,7 +30108,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
       <c r="D11">
         <v>0</v>
       </c>
@@ -27944,7 +30119,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],C9,MathQA_final[Eval GPT-3.5],D11,MathQA_final[Eval GPT-4],'Count Eval'!E11)</f>
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11">
         <v>0</v>
       </c>
@@ -27955,7 +30130,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H9,MathQA_final[Eval GPT-3.5],I11,MathQA_final[Eval GPT-4],'Count Eval'!J11)</f>
         <v>24</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="3"/>
       <c r="N11">
         <v>0</v>
       </c>
@@ -27968,7 +30143,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12">
         <v>1</v>
       </c>
@@ -27979,7 +30154,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],C9,MathQA_final[Eval GPT-3.5],D12,MathQA_final[Eval GPT-4],'Count Eval'!E12)</f>
         <v>10</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3"/>
       <c r="I12">
         <v>1</v>
       </c>
@@ -27990,7 +30165,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H9,MathQA_final[Eval GPT-3.5],I12,MathQA_final[Eval GPT-4],'Count Eval'!J12)</f>
         <v>12</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="3"/>
       <c r="N12">
         <v>1</v>
       </c>
@@ -28003,7 +30178,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13">
         <v>1</v>
       </c>
@@ -28014,7 +30189,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],C9,MathQA_final[Eval GPT-3.5],D13,MathQA_final[Eval GPT-4],'Count Eval'!E13)</f>
         <v>12</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13">
         <v>1</v>
       </c>
@@ -28025,7 +30200,7 @@
         <f>COUNTIFS(MathQA_final[Sub-Branch],H9,MathQA_final[Eval GPT-3.5],I13,MathQA_final[Eval GPT-4],'Count Eval'!J13)</f>
         <v>8</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="3"/>
       <c r="N13">
         <v>1</v>
       </c>
@@ -28038,36 +30213,36 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14">
         <f>SUM(F10:F13)</f>
         <v>90</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>2175</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="3"/>
       <c r="K14">
         <f>SUM(K10:K13)</f>
         <v>90</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="3"/>
       <c r="P14">
         <f>SUM(P10:P13)</f>
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>2176</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -28081,7 +30256,7 @@
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H18" s="2"/>
+      <c r="H18" s="3"/>
       <c r="I18">
         <v>0</v>
       </c>
@@ -28094,7 +30269,7 @@
       </c>
     </row>
     <row r="19" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H19" s="2"/>
+      <c r="H19" s="3"/>
       <c r="I19">
         <v>0</v>
       </c>
@@ -28107,7 +30282,7 @@
       </c>
     </row>
     <row r="20" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20">
         <v>1</v>
       </c>
@@ -28120,7 +30295,7 @@
       </c>
     </row>
     <row r="21" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="I21">
         <v>1</v>
       </c>
@@ -28133,11 +30308,11 @@
       </c>
     </row>
     <row r="22" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="3"/>
       <c r="K22">
         <f>SUM(K18:K21)</f>
         <v>540</v>
